--- a/_DB/data/SumSel/Building LDMProp and LUTM template.xlsx
+++ b/_DB/data/SumSel/Building LDMProp and LUTM template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icrafguest01\tin\pprk_apps_tinbaru\aksara_rancang\_DB\data\SumSel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D266C785-74EB-40ED-A1E5-92E711605F71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC0F356-E438-45A3-9F1B-2F862F7BB6B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5866,15 +5866,18 @@
   <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="B62" sqref="B1:X62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -5980,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -5992,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.9999999999999993E-3</v>
+        <v>0.999</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -6013,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -6023,7 +6026,7 @@
       </c>
       <c r="Y2">
         <f>SUM(B2:X2)</f>
-        <v>0.20900000000000002</v>
+        <v>1.079</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6064,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -6079,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -6101,7 +6104,7 @@
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y62" si="0">SUM(B3:X3)</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6142,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -6157,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -6179,7 +6182,7 @@
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6220,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -6235,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -6257,7 +6260,7 @@
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6298,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -6313,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -6335,7 +6338,7 @@
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -6391,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -6413,7 +6416,7 @@
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -6469,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -6491,7 +6494,7 @@
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -6547,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -6569,7 +6572,7 @@
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -6613,7 +6616,8 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1</v>
+        <f>1-0.701</f>
+        <v>0.29900000000000004</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -6625,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -6647,7 +6651,7 @@
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -6922,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N14">
         <v>0.1</v>
@@ -6959,7 +6963,7 @@
       </c>
       <c r="Y14">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -6991,13 +6995,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -7037,7 +7041,7 @@
       </c>
       <c r="Y15">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -7090,8 +7094,8 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <f>0.3/39</f>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" ref="Q16:Q17" si="1">0.2/39</f>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7116,7 +7120,7 @@
       </c>
       <c r="Y16">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -7169,8 +7173,8 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <f>0.3/39</f>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7195,7 +7199,7 @@
       </c>
       <c r="Y17">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -7203,34 +7207,34 @@
         <v>92</v>
       </c>
       <c r="B18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C18">
         <v>0.3</v>
       </c>
       <c r="D18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E18">
+        <v>0.3</v>
+      </c>
+      <c r="F18">
         <v>0.2</v>
       </c>
-      <c r="F18">
-        <v>0.1</v>
-      </c>
       <c r="G18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H18">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -7263,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -7273,7 +7277,7 @@
       </c>
       <c r="Y18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -7293,10 +7297,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -7323,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -7338,10 +7342,10 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -7351,7 +7355,7 @@
       </c>
       <c r="Y19">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -7410,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="T20">
         <v>0.4</v>
@@ -7429,7 +7433,7 @@
       </c>
       <c r="Y20">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -7488,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="T21">
         <v>0.2</v>
@@ -7507,7 +7511,7 @@
       </c>
       <c r="Y21">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -7566,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="T22">
         <v>0.2</v>
@@ -7585,7 +7589,7 @@
       </c>
       <c r="Y22">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -7644,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="T23">
         <v>0.2</v>
@@ -7663,7 +7667,7 @@
       </c>
       <c r="Y23">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -7716,8 +7720,8 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>0.3/39</f>
-        <v>7.6923076923076919E-3</v>
+        <f>0.2/39</f>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -7742,7 +7746,7 @@
       </c>
       <c r="Y24">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -7795,8 +7799,8 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" ref="Q25:Q60" si="1">0.3/39</f>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" ref="Q25:Q60" si="2">0.2/39</f>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -7821,7 +7825,7 @@
       </c>
       <c r="Y25">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -7874,8 +7878,8 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -7900,7 +7904,7 @@
       </c>
       <c r="Y26">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -7953,8 +7957,8 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -7979,7 +7983,7 @@
       </c>
       <c r="Y27">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -8032,8 +8036,8 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -8058,7 +8062,7 @@
       </c>
       <c r="Y28">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -8111,8 +8115,8 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -8137,7 +8141,7 @@
       </c>
       <c r="Y29">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -8190,8 +8194,8 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -8216,7 +8220,7 @@
       </c>
       <c r="Y30">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -8269,8 +8273,8 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -8295,7 +8299,7 @@
       </c>
       <c r="Y31">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -8348,8 +8352,8 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -8374,7 +8378,7 @@
       </c>
       <c r="Y32">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -8427,8 +8431,8 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -8453,7 +8457,7 @@
       </c>
       <c r="Y33">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -8506,8 +8510,8 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -8532,7 +8536,7 @@
       </c>
       <c r="Y34">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -8585,8 +8589,8 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -8611,7 +8615,7 @@
       </c>
       <c r="Y35">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -8664,8 +8668,8 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -8690,7 +8694,7 @@
       </c>
       <c r="Y36">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -8743,8 +8747,8 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -8769,7 +8773,7 @@
       </c>
       <c r="Y37">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -8822,8 +8826,8 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -8848,7 +8852,7 @@
       </c>
       <c r="Y38">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -8901,8 +8905,8 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -8927,7 +8931,7 @@
       </c>
       <c r="Y39">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -8980,8 +8984,8 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -9006,7 +9010,7 @@
       </c>
       <c r="Y40">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -9059,8 +9063,8 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -9085,7 +9089,7 @@
       </c>
       <c r="Y41">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -9138,8 +9142,8 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -9164,7 +9168,7 @@
       </c>
       <c r="Y42">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -9217,8 +9221,8 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -9243,7 +9247,7 @@
       </c>
       <c r="Y43">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -9296,8 +9300,8 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -9322,7 +9326,7 @@
       </c>
       <c r="Y44">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -9375,8 +9379,8 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -9401,7 +9405,7 @@
       </c>
       <c r="Y45">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -9454,8 +9458,8 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -9480,7 +9484,7 @@
       </c>
       <c r="Y46">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
@@ -9533,8 +9537,8 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -9559,7 +9563,7 @@
       </c>
       <c r="Y47">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -9612,8 +9616,8 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -9634,11 +9638,11 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y48">
         <f t="shared" si="0"/>
-        <v>0.2076923076923077</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
@@ -9691,8 +9695,8 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -9717,7 +9721,7 @@
       </c>
       <c r="Y49">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
@@ -9770,8 +9774,8 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -9796,7 +9800,7 @@
       </c>
       <c r="Y50">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -9849,8 +9853,8 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -9875,7 +9879,7 @@
       </c>
       <c r="Y51">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
@@ -9928,8 +9932,8 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -9954,7 +9958,7 @@
       </c>
       <c r="Y52">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -10007,8 +10011,8 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -10033,7 +10037,7 @@
       </c>
       <c r="Y53">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
@@ -10086,8 +10090,8 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -10108,11 +10112,11 @@
         <v>0</v>
       </c>
       <c r="X54">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="Y54">
         <f t="shared" si="0"/>
-        <v>0.2076923076923077</v>
+        <v>0.90512820512820513</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
@@ -10165,8 +10169,8 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -10191,7 +10195,7 @@
       </c>
       <c r="Y55">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -10244,8 +10248,8 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -10270,7 +10274,7 @@
       </c>
       <c r="Y56">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -10323,8 +10327,8 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -10349,7 +10353,7 @@
       </c>
       <c r="Y57">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
@@ -10402,8 +10406,8 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -10424,11 +10428,11 @@
         <v>0</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y58">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>0.10512820512820513</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
@@ -10439,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -10481,8 +10485,8 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -10507,7 +10511,7 @@
       </c>
       <c r="Y59">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>0.10512820512820513</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -10560,8 +10564,8 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076919E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1282051282051282E-3</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -10586,7 +10590,7 @@
       </c>
       <c r="Y60">
         <f t="shared" si="0"/>
-        <v>7.6923076923076919E-3</v>
+        <v>5.1282051282051282E-3</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
@@ -10672,77 +10676,77 @@
         <v>78</v>
       </c>
       <c r="B62">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C62">
+        <v>0.6</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
         <v>0.7</v>
       </c>
-      <c r="D62">
-        <v>0.9</v>
-      </c>
-      <c r="E62">
+      <c r="F62">
+        <v>0.6</v>
+      </c>
+      <c r="G62">
+        <v>0.6</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.85</v>
+      </c>
+      <c r="K62">
+        <v>0.95</v>
+      </c>
+      <c r="L62">
+        <v>0.75</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1E-3</v>
+      </c>
+      <c r="O62">
+        <v>1E-3</v>
+      </c>
+      <c r="P62">
+        <v>0.45</v>
+      </c>
+      <c r="Q62">
         <v>0.8</v>
       </c>
-      <c r="F62">
-        <v>0.9</v>
-      </c>
-      <c r="G62">
-        <v>0.9</v>
-      </c>
-      <c r="H62">
-        <v>0.1</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0.9</v>
-      </c>
-      <c r="K62">
+      <c r="R62">
+        <v>0.5</v>
+      </c>
+      <c r="S62">
         <v>0.8</v>
       </c>
-      <c r="L62">
-        <v>0.8</v>
-      </c>
-      <c r="M62">
-        <v>0.6</v>
-      </c>
-      <c r="N62">
-        <v>0.2</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0.4</v>
-      </c>
-      <c r="Q62">
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
         <v>0.7</v>
       </c>
-      <c r="R62">
-        <v>0.1</v>
-      </c>
-      <c r="S62">
-        <v>0.4</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0.4</v>
-      </c>
       <c r="V62">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="W62">
         <v>1</v>
       </c>
       <c r="X62">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Y62">
         <f t="shared" si="0"/>
-        <v>12.9</v>
+        <v>12.062000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
@@ -10751,90 +10755,91 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:X63" si="2">SUM(C2:C62)</f>
+        <f t="shared" ref="C63:X63" si="3">SUM(C2:C62)</f>
         <v>1</v>
       </c>
       <c r="D63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O63">
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="2"/>
-        <v>0.99999999999999978</v>
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002</v>
       </c>
       <c r="R63">
-        <f t="shared" si="2"/>
-        <v>0.99999999999999989</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="S63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>

--- a/_DB/data/SumSel/Building LDMProp and LUTM template.xlsx
+++ b/_DB/data/SumSel/Building LDMProp and LUTM template.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icrafguest01\tin\pprk_apps_tinbaru\aksara_rancang\_DB\data\SumSel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC0F356-E438-45A3-9F1B-2F862F7BB6B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15988DB3-30D2-4055-93F5-EBF8D074C28A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LDMProp" sheetId="1" r:id="rId1"/>
-    <sheet name="LUTM_template" sheetId="2" r:id="rId2"/>
-    <sheet name="LDMProp_2006" sheetId="3" r:id="rId3"/>
+    <sheet name="LDMProp_2006 - ori" sheetId="4" r:id="rId1"/>
+    <sheet name="LDMProp" sheetId="1" r:id="rId2"/>
+    <sheet name="LUTM_template" sheetId="2" r:id="rId3"/>
+    <sheet name="LDMProp_2006" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="129">
   <si>
     <t>Hutan.lahan.kering.primer</t>
   </si>
@@ -1272,11 +1273,4739 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FD7D37-B392-47A9-A5B6-BDD6C55C0555}">
+  <dimension ref="A1:X63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.05</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.03</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.2</v>
+      </c>
+      <c r="N3">
+        <v>0.05</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.01</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.3</v>
+      </c>
+      <c r="N4">
+        <v>0.1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.01</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.2</v>
+      </c>
+      <c r="N5">
+        <v>0.1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.01</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.1</v>
+      </c>
+      <c r="N6">
+        <v>0.1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.01</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.01</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.05</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.01</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.05</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.01</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.3</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.01</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.05</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.05</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.1</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0.2</v>
+      </c>
+      <c r="N14">
+        <v>0.1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.01</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.15</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.25</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.01</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.01</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="C18">
+        <v>0.2</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18">
+        <v>0.2</v>
+      </c>
+      <c r="F18">
+        <v>0.1</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>0.9</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.2</v>
+      </c>
+      <c r="G19">
+        <v>0.2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0.3</v>
+      </c>
+      <c r="V19">
+        <v>0.01</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.05</v>
+      </c>
+      <c r="T20">
+        <v>0.4</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.05</v>
+      </c>
+      <c r="T21">
+        <v>0.2</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.05</v>
+      </c>
+      <c r="T22">
+        <v>0.2</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.05</v>
+      </c>
+      <c r="T23">
+        <v>0.2</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.01</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.01</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0.01</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0.01</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0.01</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0.01</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0.01</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0.01</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0.01</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0.01</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0.01</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0.01</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0.01</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0.01</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0.01</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0.01</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0.01</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0.01</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0.01</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0.01</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0.01</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0.01</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0.01</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0.01</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0.01</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0.01</v>
+      </c>
+      <c r="R49">
+        <v>0.01</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0.01</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0.01</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0.01</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0.01</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0.01</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0.01</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0.01</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0.01</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0.01</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0.1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0.01</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0.01</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62">
+        <f>1-SUM(B2:B61)</f>
+        <v>0.9</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:X62" si="0">1-SUM(C2:C61)</f>
+        <v>0.7</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>0.60999999999999988</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f>SUM(B2:B62)</f>
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ref="C63:X63" si="1">SUM(C2:C62)</f>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1:X43"/>
@@ -4572,7 +9301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3D2901-95AA-4417-A1DE-A55F98026CB9}">
   <dimension ref="A1:X24"/>
   <sheetViews>
@@ -5861,26 +10590,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7873717E-CABA-4E31-970C-3310B215005D}">
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B62" sqref="B1:X62"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:X62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5951,7 +10686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
@@ -5983,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -5995,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.999</v>
+        <v>0.92</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -6016,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -6026,10 +10761,14 @@
       </c>
       <c r="Y2">
         <f>SUM(B2:X2)</f>
-        <v>1.079</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.92</v>
+      </c>
+      <c r="Z2">
+        <f>N2/SUM($N$2:$N$14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
@@ -6070,7 +10809,7 @@
         <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -6082,7 +10821,8 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.05</v>
+        <f t="shared" ref="R3:R8" si="0">0.5/13</f>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -6103,11 +10843,15 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y62" si="0">SUM(B3:X3)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Y3:Y62" si="1">SUM(B3:X3)</f>
+        <v>0.25846153846153846</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z14" si="2">N3/SUM($N$2:$N$14)</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
@@ -6145,10 +10889,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -6160,7 +10904,8 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.05</v>
+        <f t="shared" si="0"/>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -6181,11 +10926,15 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.3684615384615384</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -6226,7 +10975,7 @@
         <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -6238,7 +10987,8 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.05</v>
+        <f t="shared" si="0"/>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -6259,11 +11009,15 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.25846153846153846</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="2"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -6301,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -6316,7 +11070,8 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.05</v>
+        <f t="shared" si="0"/>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -6337,11 +11092,15 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.13846153846153847</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -6367,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -6382,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -6394,7 +11153,8 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.05</v>
+        <f t="shared" si="0"/>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -6415,11 +11175,15 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.26846153846153847</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>84</v>
       </c>
@@ -6445,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -6460,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -6472,7 +11236,8 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.05</v>
+        <f t="shared" si="0"/>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -6493,11 +11258,15 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.20846153846153845</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="2"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -6523,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -6538,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -6550,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -6571,11 +11340,15 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -6616,8 +11389,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <f>1-0.701</f>
-        <v>0.29900000000000004</v>
+        <v>0.03</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -6629,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -6650,11 +11422,15 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="0"/>
-        <v>0.64900000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
@@ -6707,7 +11483,7 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -6728,11 +11504,15 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="2"/>
+        <v>0.18518518518518517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -6758,7 +11538,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -6785,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -6806,11 +11586,15 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="2"/>
+        <v>0.18518518518518517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
@@ -6836,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -6863,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -6884,11 +11668,15 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="2"/>
+        <v>0.18518518518518517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
@@ -6911,28 +11699,28 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.02</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>0.1</v>
       </c>
-      <c r="I14">
-        <v>0.1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0.2</v>
-      </c>
       <c r="N14">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6941,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -6962,11 +11750,15 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="2"/>
+        <v>0.12962962962962962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -6995,13 +11787,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.15</v>
+        <v>1E-3</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.25</v>
+        <v>1E-3</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -7019,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -7040,11 +11832,11 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>90</v>
       </c>
@@ -7094,8 +11886,8 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <f t="shared" ref="Q16:Q17" si="1">0.2/39</f>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" ref="Q16:Q17" si="3">0.3/40</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7119,8 +11911,8 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -7173,33 +11965,33 @@
         <v>0</v>
       </c>
       <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <f t="shared" si="1"/>
-        <v>5.1282051282051282E-3</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -7207,25 +11999,25 @@
         <v>92</v>
       </c>
       <c r="B18">
+        <v>0.05</v>
+      </c>
+      <c r="C18">
         <v>0.2</v>
       </c>
-      <c r="C18">
-        <v>0.3</v>
-      </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F18">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G18">
         <v>0.2</v>
       </c>
       <c r="H18">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -7276,8 +12068,8 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
+        <f t="shared" si="1"/>
+        <v>1.65</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -7327,7 +12119,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.55000000000000004</v>
+        <v>0.99</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -7342,10 +12134,10 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="V19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -7354,8 +12146,8 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="0"/>
-        <v>1.26</v>
+        <f t="shared" si="1"/>
+        <v>1.54</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -7432,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
     </row>
@@ -7486,16 +12278,16 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -7503,15 +12295,12 @@
       <c r="V21">
         <v>0</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -7573,7 +12362,7 @@
         <v>0.05</v>
       </c>
       <c r="T22">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -7588,8 +12377,8 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
+        <f t="shared" si="1"/>
+        <v>0.45</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -7666,7 +12455,7 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
@@ -7720,8 +12509,8 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>0.2/39</f>
-        <v>5.1282051282051282E-3</v>
+        <f>0.3/40</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -7745,8 +12534,8 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -7799,8 +12588,8 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" ref="Q25:Q60" si="2">0.2/39</f>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" ref="Q25:Q60" si="4">0.3/40</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -7824,8 +12613,8 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -7878,8 +12667,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -7903,8 +12691,8 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -7957,8 +12745,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -7982,8 +12769,8 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -8036,8 +12823,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -8061,8 +12847,8 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -8115,8 +12901,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -8140,8 +12925,8 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -8194,8 +12979,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>0.01</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -8219,8 +13003,8 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -8273,8 +13057,8 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -8298,8 +13082,8 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -8352,8 +13136,8 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -8377,8 +13161,8 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -8431,8 +13215,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -8456,8 +13239,8 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -8510,8 +13293,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -8535,8 +13317,8 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -8589,8 +13371,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -8614,8 +13395,8 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -8668,8 +13449,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -8693,8 +13473,8 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -8747,8 +13527,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -8772,8 +13551,8 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -8826,8 +13605,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -8851,8 +13629,8 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -8905,8 +13683,8 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -8930,8 +13708,8 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -8984,8 +13762,8 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -9009,8 +13787,8 @@
         <v>0</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -9063,8 +13841,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -9088,8 +13865,8 @@
         <v>0</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -9142,8 +13919,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>0.01</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -9167,8 +13943,8 @@
         <v>0</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.01</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -9221,8 +13997,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -9246,8 +14021,8 @@
         <v>0</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -9300,8 +14075,8 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -9325,8 +14100,8 @@
         <v>0</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -9379,8 +14154,8 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -9404,8 +14179,8 @@
         <v>0</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -9458,8 +14233,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -9483,8 +14257,8 @@
         <v>0</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
@@ -9537,8 +14311,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -9562,8 +14335,8 @@
         <v>0</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -9616,8 +14389,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -9641,8 +14413,8 @@
         <v>0</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
@@ -9695,8 +14467,8 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -9720,8 +14492,8 @@
         <v>0</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
@@ -9774,8 +14546,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>0.01</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -9799,8 +14570,8 @@
         <v>0</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -9853,8 +14624,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -9878,8 +14648,8 @@
         <v>0</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
@@ -9932,8 +14702,8 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -9957,8 +14727,8 @@
         <v>0</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -10011,8 +14781,8 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -10024,7 +14794,7 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -10036,8 +14806,8 @@
         <v>0</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.7500000000000002E-2</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
@@ -10090,8 +14860,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -10115,8 +14884,8 @@
         <v>0.9</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="0"/>
-        <v>0.90512820512820513</v>
+        <f t="shared" si="1"/>
+        <v>0.90249999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
@@ -10169,8 +14938,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -10194,8 +14962,8 @@
         <v>0</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -10248,8 +15016,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -10273,8 +15040,8 @@
         <v>0</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -10327,8 +15094,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -10352,8 +15118,8 @@
         <v>0</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
@@ -10406,8 +15172,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -10431,8 +15196,8 @@
         <v>0.1</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="0"/>
-        <v>0.10512820512820513</v>
+        <f t="shared" si="1"/>
+        <v>0.10500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
@@ -10443,7 +15208,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -10485,8 +15250,8 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -10510,8 +15275,8 @@
         <v>0</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="0"/>
-        <v>0.10512820512820513</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -10564,8 +15329,8 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -10589,8 +15354,8 @@
         <v>0</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="0"/>
-        <v>5.1282051282051282E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
@@ -10643,7 +15408,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -10667,8 +15432,8 @@
         <v>0</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
@@ -10676,77 +15441,100 @@
         <v>78</v>
       </c>
       <c r="B62">
+        <f>1-SUM(B2:B61)</f>
+        <v>0.95</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:X62" si="5">1-SUM(C2:C61)</f>
         <v>0.8</v>
       </c>
-      <c r="C62">
+      <c r="D62">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="D62">
+      <c r="H62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="5"/>
+        <v>9.9999999999998979E-3</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="5"/>
+        <v>0.999</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E62">
-        <v>0.7</v>
-      </c>
-      <c r="F62">
-        <v>0.6</v>
-      </c>
-      <c r="G62">
-        <v>0.6</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
+      <c r="L62">
+        <f t="shared" si="5"/>
+        <v>0.999</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="5"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="5"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="5"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="5"/>
+        <v>0.73699999999999988</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="5"/>
+        <v>0.60923076923076913</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
-      <c r="K62">
-        <v>0.95</v>
-      </c>
-      <c r="L62">
-        <v>0.75</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>1E-3</v>
-      </c>
-      <c r="O62">
-        <v>1E-3</v>
-      </c>
-      <c r="P62">
-        <v>0.45</v>
-      </c>
-      <c r="Q62">
+      <c r="T62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="R62">
-        <v>0.5</v>
-      </c>
-      <c r="S62">
-        <v>0.8</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0.7</v>
-      </c>
       <c r="V62">
-        <v>0.96</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="W62">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X62">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y62">
-        <f t="shared" si="0"/>
-        <v>12.062000000000001</v>
+        <f t="shared" si="1"/>
+        <v>13.574230769230768</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
@@ -10755,91 +15543,91 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:X63" si="3">SUM(C2:C62)</f>
+        <f t="shared" ref="C63:X63" si="6">SUM(C2:C62)</f>
         <v>1</v>
       </c>
       <c r="D63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="3"/>
-        <v>1.0000000000000002</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="R63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="T63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="W63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
